--- a/serp_clean.xlsx
+++ b/serp_clean.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JHON\Desktop\Nueva carpeta\scraping_data_seo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F30EF2-A49F-4298-A14D-65D11AEA864E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBABB7C1-8E3D-4109-9874-1C2869EA288C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,14 +18,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SEO_ALTO!$A$1:$A$202</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">SEO_BAJO!$A$1:$A$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">SEO_BAJO!$A$1:$A$505</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="375">
   <si>
     <t>SEO_ALTO</t>
   </si>
@@ -415,6 +415,741 @@
   </si>
   <si>
     <t>https://www.soyecuatoriano.com/otavalo/laptop</t>
+  </si>
+  <si>
+    <t>https://www.elnorte.ec/acnur-dono-7-laptops-uso-estudiantes-vulnerables/</t>
+  </si>
+  <si>
+    <t>https://indotrading.biz/laptops/Ecuador/portatil-Otavalo.php</t>
+  </si>
+  <si>
+    <t>https://muslimcentral.com/reda-bedeir-sins-repentance-mercy-allah/</t>
+  </si>
+  <si>
+    <t>https://estilocayambe.com/</t>
+  </si>
+  <si>
+    <t>https://www.proautocayambe.com.ec/</t>
+  </si>
+  <si>
+    <t>https://www.aki.com.ec/</t>
+  </si>
+  <si>
+    <t>http://www.findglocal.com/EC/Cayambe/167495760482262/Easy-Compu</t>
+  </si>
+  <si>
+    <t>https://www.jaher.com.ec/</t>
+  </si>
+  <si>
+    <t>https://offerup.com/explore/sck/ca/salinas/laptop</t>
+  </si>
+  <si>
+    <t>https://locations.rentacenter.com/california/salinas/laptops/</t>
+  </si>
+  <si>
+    <t>https://www.comandato.com/</t>
+  </si>
+  <si>
+    <t>https://salinas.solutekla.com/product</t>
+  </si>
+  <si>
+    <t>https://www.tiendeo.com.ec/salinas/ofertas/laptop</t>
+  </si>
+  <si>
+    <t>https://www.starofservice.ec/dir/santa-elena/salinas/salinas/reparacion-de-pc</t>
+  </si>
+  <si>
+    <t>https://www.iglobal.co/ecuador/salinas/near/laptops-tena</t>
+  </si>
+  <si>
+    <t>https://1122.com.uy/rubro-zona/salinas-sur/transformadores-laptops/PRD7534/Z03018</t>
+  </si>
+  <si>
+    <t>https://www.bosque.com.ec/</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.es/Hotel_Review-g1725304-d8351703-Reviews-Hotel_Playa_Hermosa-Atacames_Esmeraldas_Province.html</t>
+  </si>
+  <si>
+    <t>https://www.casinuevo.ec/servicios-en-atacames/</t>
+  </si>
+  <si>
+    <t>https://www.pressreader.com/ecuador/la-hora-esmeraldas/20190626/282364041215022</t>
+  </si>
+  <si>
+    <t>http://www.findglocal.com/EC/Unknown/960306617448012/CompuSoluciones</t>
+  </si>
+  <si>
+    <t>https://www.iglobal.co/ecuador/atacames/search/reparacion/3</t>
+  </si>
+  <si>
+    <t>https://soluciones-computacionales.negocio.site/</t>
+  </si>
+  <si>
+    <t>https://www.pycca.com/tiendas</t>
+  </si>
+  <si>
+    <t>https://www.creditoseconomicos.com/puntos-de-venta</t>
+  </si>
+  <si>
+    <t>https://computron.com.ec/categories/laptops/41279</t>
+  </si>
+  <si>
+    <t>https://www.shoplikeyougiveadamn.com/en-ad/t-shirt-organic-jersey-world-champion-cycling/p-13986</t>
+  </si>
+  <si>
+    <t>https://www.vatanbilgisayar.com/notebook/</t>
+  </si>
+  <si>
+    <t>http://www.mccain.com/</t>
+  </si>
+  <si>
+    <t>https://www.whatsatiendas.com/search.php?palabra=Bater%C3%ADa%20para%20Notebook%20HP%20550%20Compaq</t>
+  </si>
+  <si>
+    <t>https://www.iglobal.co/ecuador/patate/search/bateria/3</t>
+  </si>
+  <si>
+    <t>https://www.recomienda.org/country/patate/</t>
+  </si>
+  <si>
+    <t>https://www.trendyol.com/rummo/gnocchi-di-patate-patates-koftesi-500-gr-p-39705876</t>
+  </si>
+  <si>
+    <t>https://tiendamovil.guiabbb.ec/01011829/Marlon_Dc_Celular_de_Patate</t>
+  </si>
+  <si>
+    <t>https://ec.newtouse.com/search?l=8&amp;c=14&amp;sc=27</t>
+  </si>
+  <si>
+    <t>https://www.alamy.com/stock-photo/bird-droppings-on-car.html</t>
+  </si>
+  <si>
+    <t>https://www.mentalfloss.com/article/624581/penguin-poop-makes-so-much-laughing-gas-scientists-studying-it-go-completely-cuckoo</t>
+  </si>
+  <si>
+    <t>https://www.tupulga.com/search?l=3652315&amp;r=&amp;c=47&amp;sc=51</t>
+  </si>
+  <si>
+    <t>https://www.tia.com.ec/tecnologia/laptops</t>
+  </si>
+  <si>
+    <t>https://www.etsy.com/ca/listing/647598503/bat-nap-sticker-for-laptop-car-scrapbook</t>
+  </si>
+  <si>
+    <t>https://www.etsy.com/hk-en/listing/647598503/bat-nap-sticker-for-laptop-car-scrapbook?ref=related-5</t>
+  </si>
+  <si>
+    <t>https://www.chegg.com/homework-help/questions-and-answers/probability-laptop-drop-price-059-probability-laptop-b-wil-drop-price-063-probability-lapt-q61076108</t>
+  </si>
+  <si>
+    <t>https://www.ubuy.co.in/product/3287N8GU-informe-sobre-los-dep-sitos-de-guano-de-mejillones-presentado-al-se-or-ministro-de-hacienda-hardcove</t>
+  </si>
+  <si>
+    <t>https://www.tokopedia.com/find/tas-ransel-slim/c/jakarta-barat?page=19</t>
+  </si>
+  <si>
+    <t>https://horario.top/01897504/Met%C3%A1licas_Morocho</t>
+  </si>
+  <si>
+    <t>https://www.noktot.com/collections/laptops-noktot-ecuador</t>
+  </si>
+  <si>
+    <t>https://www.iglobal.co/ecuador/search/tabacundo-redes-y-conectividad</t>
+  </si>
+  <si>
+    <t>https://tagsets.com/hashtags-tabacundo/</t>
+  </si>
+  <si>
+    <t>https://www.tegalli.com/carpetas-en-tabacundo-2/</t>
+  </si>
+  <si>
+    <t>https://digitalbox.com.ec/24-laptops-linea-empresarial</t>
+  </si>
+  <si>
+    <t>https://www.findhealthclinics.com/EC/Pelileo/1928164264107144/ClinicPc-Pelileo</t>
+  </si>
+  <si>
+    <t>https://cumaps.net/en/EC/opticas-pelileo-p69644</t>
+  </si>
+  <si>
+    <t>https://opalos.com/edysontkd</t>
+  </si>
+  <si>
+    <t>https://www.tupulga.com/search?l=3653287&amp;r=&amp;c=47&amp;sc=51</t>
+  </si>
+  <si>
+    <t>https://www.iglobal.co/ecuador/pelileo/search/bateria/4</t>
+  </si>
+  <si>
+    <t>https://www.pelileostore.com/</t>
+  </si>
+  <si>
+    <t>https://www.eldiario.ec/noticias-manabi-ecuador/394221-pedian-fotos-de-desnudos-en-la-red/</t>
+  </si>
+  <si>
+    <t>https://www.expedia.com/es/Manta-Hoteles-Hosteria-Casa-Grande-Pedernales.h38503439.Informacion-Hotel</t>
+  </si>
+  <si>
+    <t>http://www.realidadesdepedernales.com/2013/06/diputados-entrega-laptops-estudiantes.html</t>
+  </si>
+  <si>
+    <t>https://notiextra.net/2020/08/16/pedernales-laptop-para-estudiantes-y-autopista-del-ambar-matizan-discurso-de-abinader/</t>
+  </si>
+  <si>
+    <t>https://www.troopwebhost.org/Troop696Dickinson/Index.htm</t>
+  </si>
+  <si>
+    <t>https://horario.top/0177534/Reballing_CompuCell-TEC</t>
+  </si>
+  <si>
+    <t>https://www.corotos.com.do/sl/la-vega/jarabacoa/sc/electr%C3%B3nica/computadoras-laptops</t>
+  </si>
+  <si>
+    <t>https://tienda.naranja.com/</t>
+  </si>
+  <si>
+    <t>https://www.lapulga.com.do/laptop-apple-macbook-pro_6886154.html</t>
+  </si>
+  <si>
+    <t>http://www.barrigaverde.net/?q=node/24723</t>
+  </si>
+  <si>
+    <t>https://cyber-la-neta.negocio.site/</t>
+  </si>
+  <si>
+    <t>http://www.findglocal.com/EC/Azogues/208822005916866/PC-Systems</t>
+  </si>
+  <si>
+    <t>https://azogues.evisos.ec/lotes-de-laptop-usadas-miami-hp-dell-apple-id-220116</t>
+  </si>
+  <si>
+    <t>https://www.creditoseconomicos.com/</t>
+  </si>
+  <si>
+    <t>https://www.elespectadorazogues.com/?p=9316</t>
+  </si>
+  <si>
+    <t>https://mecompras.ec/categoria-producto/hogar/laptops-impresoras/laptops-y-pc-de-escritorio/</t>
+  </si>
+  <si>
+    <t>https://www.tupulga.com/search?l=3660434&amp;r=&amp;c=47&amp;sc=51</t>
+  </si>
+  <si>
+    <t>https://www.elespectadorazogues.com/?cat=7&amp;paged=291</t>
+  </si>
+  <si>
+    <t>https://www.edina.com.ec/computadoras/computron/la-libertad/9619/24/2021</t>
+  </si>
+  <si>
+    <t>https://www.elektra.com.gt/</t>
+  </si>
+  <si>
+    <t>https://www.delsol.com.mx/</t>
+  </si>
+  <si>
+    <t>https://www.max.com.gt/</t>
+  </si>
+  <si>
+    <t>https://www.laptopscreen.com/</t>
+  </si>
+  <si>
+    <t>https://www.creditia.com.ec/tarjeta-creditia</t>
+  </si>
+  <si>
+    <t>https://infoguia.com/ct.asp?key=laptops-venta-de-laptops-minilaptops-santa-elena-de-uairen&amp;cat=2442&amp;ciud=429</t>
+  </si>
+  <si>
+    <t>https://www.insidehighered.com/digital-learning/article/2019/07/10/survey-shows-nearly-half-students-distracted-technology</t>
+  </si>
+  <si>
+    <t>https://viacompusantaelena.com/</t>
+  </si>
+  <si>
+    <t>https://www.lacuracaonline.com/guatemala/</t>
+  </si>
+  <si>
+    <t>https://semanaeconomica.com/tag/laptops</t>
+  </si>
+  <si>
+    <t>https://compustore-chone.com/categoria-producto/laptops/</t>
+  </si>
+  <si>
+    <t>https://www.iglobal.co/ecuador/chone/search-amp/laptops-quito</t>
+  </si>
+  <si>
+    <t>https://www.ubikate.net/tag/venta-de-laptop-en-chone/</t>
+  </si>
+  <si>
+    <t>https://www.nexdu.com/ec/q/chone-m/computadoras</t>
+  </si>
+  <si>
+    <t>https://www.benesseresalute.net/7-588e-2b405/efbeb_c_bea_/11788017222419/1739/ZGQ_2NTM4Yj/1-8-19490/efbebcb</t>
+  </si>
+  <si>
+    <t>https://manabinoticias.com/chone-estrena-pelicula-en-cines-ecuatorianos/</t>
+  </si>
+  <si>
+    <t>https://cemco.com.ec/</t>
+  </si>
+  <si>
+    <t>https://www.eopensolutions.com/productos-y-servicios/computadores-y-laptops</t>
+  </si>
+  <si>
+    <t>https://www.nexdu.com/ec/quito-p/empresa/abc-laptops-1864</t>
+  </si>
+  <si>
+    <t>https://www.tekboss.com.ec/</t>
+  </si>
+  <si>
+    <t>https://www.lenovo.com/ec/es/donde-comprar/distribuidores</t>
+  </si>
+  <si>
+    <t>https://www.dell.com/es-ec</t>
+  </si>
+  <si>
+    <t>https://www.exacompu.com.ec/mantenimiento-preventivo-de-computadoras-laptops/</t>
+  </si>
+  <si>
+    <t>https://hardwaredoctor.com.ec/</t>
+  </si>
+  <si>
+    <t>https://almacenesjapon.com/24-laptops</t>
+  </si>
+  <si>
+    <t>https://innovaciondigital.ec/servicio-tecnico-laptops-quito/</t>
+  </si>
+  <si>
+    <t>https://www.pycca.com/laptops</t>
+  </si>
+  <si>
+    <t>https://1700digital.com/</t>
+  </si>
+  <si>
+    <t>http://compudisc.net/laptops/laptops-hp/</t>
+  </si>
+  <si>
+    <t>https://premiumtech.com.ec/</t>
+  </si>
+  <si>
+    <t>https://www.ganacell.com/computadoras</t>
+  </si>
+  <si>
+    <t>https://mibodega.ec/product-category/audio-y-video/laptops/</t>
+  </si>
+  <si>
+    <t>https://www.fgsoluciones.com/</t>
+  </si>
+  <si>
+    <t>https://laptopshp.com/</t>
+  </si>
+  <si>
+    <t>https://www.servicompu911.com/servicio-tecnico-laptops</t>
+  </si>
+  <si>
+    <t>https://www.jaher.com.ec/31-laptop</t>
+  </si>
+  <si>
+    <t>https://enguayaquil.com/laptops/</t>
+  </si>
+  <si>
+    <t>https://www.edina.com.ec/buscar/laptops/cuenca/1</t>
+  </si>
+  <si>
+    <t>https://repycom.com.ec/clientefinal/producto-categoria/laptops/</t>
+  </si>
+  <si>
+    <t>https://www.almacenofertas.com/tecnologia</t>
+  </si>
+  <si>
+    <t>https://www.nexdu.com/ec/q/cuenca-a/laptops</t>
+  </si>
+  <si>
+    <t>https://gigacomputers.com.ec/</t>
+  </si>
+  <si>
+    <t>https://horario.top/01003812/Tecni_Iceam</t>
+  </si>
+  <si>
+    <t>http://www.aquiecuadortravel.ec/maquinas_de_coser_guaranda.html</t>
+  </si>
+  <si>
+    <t>http://www.orvehogar.com.ec/</t>
+  </si>
+  <si>
+    <t>https://www.ecuador-turistico.com/2018/02/terminal-terrestre-guaranda.html</t>
+  </si>
+  <si>
+    <t>https://www.iglobal.co/ecuador/guaranda/search-amp/laptops-ecuador</t>
+  </si>
+  <si>
+    <t>https://www.elnorte.ec/aduana-dona-mercaderia/</t>
+  </si>
+  <si>
+    <t>https://www.tulcanonline.com/</t>
+  </si>
+  <si>
+    <t>https://ec.placedigger.com/clinica-de-pcs-y-laptops54155509.html</t>
+  </si>
+  <si>
+    <t>https://www.tiendeo.com.ec/riobamba/ofertas/laptop</t>
+  </si>
+  <si>
+    <t>https://www.hospitaldelcomputador.com/</t>
+  </si>
+  <si>
+    <t>https://www.yelu.ec/companies/Laptops_Riobamba</t>
+  </si>
+  <si>
+    <t>https://dwsystems.business.site/</t>
+  </si>
+  <si>
+    <t>https://www.electrobahia.com.ec/categoria-producto/linea-tecnologica/computadoras/laptops/</t>
+  </si>
+  <si>
+    <t>https://www.coralhipermercados.com/</t>
+  </si>
+  <si>
+    <t>https://www.crepublisa.com/ecuador/secciones/2784/computec/catalogo</t>
+  </si>
+  <si>
+    <t>https://www.iglobal.co/ecuador/search/laptops-riobamba</t>
+  </si>
+  <si>
+    <t>https://bloqcenter.com/</t>
+  </si>
+  <si>
+    <t>https://latacunga-ecuador.com/</t>
+  </si>
+  <si>
+    <t>https://quenoticias.com/noticias/video-operativo-carcel-latacunga/</t>
+  </si>
+  <si>
+    <t>https://www.bancoguayaquil.com/promociones/</t>
+  </si>
+  <si>
+    <t>https://www.aki.com.ec/local/gran-aki-esmeraldas/page/90/</t>
+  </si>
+  <si>
+    <t>https://catalogo.claro.com.ec/</t>
+  </si>
+  <si>
+    <t>https://www.coppel.com/coppel-granjas-esmeralda-371</t>
+  </si>
+  <si>
+    <t>https://www.comandato.com/motos</t>
+  </si>
+  <si>
+    <t>https://www.laptopmag.com/articles/best-laptops-under-500</t>
+  </si>
+  <si>
+    <t>https://www.claroshop.com/</t>
+  </si>
+  <si>
+    <t>https://www.ocompra.com/ecuador/buscar/item/laptop/galapagos/</t>
+  </si>
+  <si>
+    <t>https://www.superpaco.com/laptop-asus-zenbook-14-ux435ea-a5006t/p</t>
+  </si>
+  <si>
+    <t>https://www.compufacilgalapagos.com/producto/mochila-para-laptops-15-6-klip-xtreme-knb-425or/</t>
+  </si>
+  <si>
+    <t>https://www.redbubble.com/shop/galapagos+laptop-sleeves</t>
+  </si>
+  <si>
+    <t>https://rivacase.com/en/</t>
+  </si>
+  <si>
+    <t>https://society6.com/laptop-skins/galapagos</t>
+  </si>
+  <si>
+    <t>https://printsbykit.com/shop/p/galapagos-terrazzo-laptop-sleeve</t>
+  </si>
+  <si>
+    <t>https://www.galapagoslastminutes.com/es/lastminutes/camila-trimaran-clase-de-lujo-ultimo-minuto-noviembre-2021-2/</t>
+  </si>
+  <si>
+    <t>https://www.yellowpages.ec/phone,593-997121638,Television-Repair-Service,Santo-Domingo-de-los-Colorados,ECEN61385.html</t>
+  </si>
+  <si>
+    <t>https://www.darwinfoundation.org/en/get-involved/vacancies/scholarships/fellowship</t>
+  </si>
+  <si>
+    <t>https://computecibarra.com/</t>
+  </si>
+  <si>
+    <t>http://ecuador.gugadir.com/laptops-hp-core-i3-en-guayaquil/Ibarra/</t>
+  </si>
+  <si>
+    <t>https://www.tiendeo.com.ec/ibarra/ofertas/laptop</t>
+  </si>
+  <si>
+    <t>https://yellow.place/es/laptopsht-repuestos-ibarra-pantallas-cargadores-baterias-ibarra-ecuador</t>
+  </si>
+  <si>
+    <t>https://dilipa.com.ec/</t>
+  </si>
+  <si>
+    <t>https://www.sony.com.ec/corporate/EC/servicioysoporte/servicio.html?XID=M:svc:esupport</t>
+  </si>
+  <si>
+    <t>https://horario.top/02109770/HardTechnology_-_Laptops</t>
+  </si>
+  <si>
+    <t>https://es.cybo.com/EC-biz/hardtechnology-servicio-t%C3%A9cnico-de</t>
+  </si>
+  <si>
+    <t>https://www.guimun.com/ecuador/negociosec/4557/world-computers/contacto</t>
+  </si>
+  <si>
+    <t>https://ec.todosnegocios.com/hardtechnology-servicio-t%C3%A9cnico-de-098-330-0340</t>
+  </si>
+  <si>
+    <t>https://www.lenovo.com/ec/es/laptops/c/LAPTOPS</t>
+  </si>
+  <si>
+    <t>https://www.razer.com/</t>
+  </si>
+  <si>
+    <t>https://www.asus.com/us/</t>
+  </si>
+  <si>
+    <t>https://repairloja.com/servicio-tecnico/hardware/laptops.html</t>
+  </si>
+  <si>
+    <t>https://www.msi.com/index.php</t>
+  </si>
+  <si>
+    <t>https://www.microsoft.com/en-us/store/b/pc</t>
+  </si>
+  <si>
+    <t>https://www.newegg.com/</t>
+  </si>
+  <si>
+    <t>http://www.elpaseoshopping.com/babahoyo/tecnologia/compu-tienda</t>
+  </si>
+  <si>
+    <t>https://www.supercines.com/</t>
+  </si>
+  <si>
+    <t>https://www.tecnosmart.com.ec/categoria-producto/computadoras/laptops/</t>
+  </si>
+  <si>
+    <t>https://www.ubikate.net/tag/reparacion-de-laptops-en-babahoyo/</t>
+  </si>
+  <si>
+    <t>https://www.iglobal.co/ecuador/babahoyo/search/laptop</t>
+  </si>
+  <si>
+    <t>https://laptopssolutions.negocio.site/</t>
+  </si>
+  <si>
+    <t>https://www.edina.com.ec/buscar/venta-de-computadoras/babahoyo/1</t>
+  </si>
+  <si>
+    <t>https://blog.lumingo.com/las-5-mejores-marcas-de-laptops-en-lima/</t>
+  </si>
+  <si>
+    <t>https://www.ecuavip.com/categoria/marcas/</t>
+  </si>
+  <si>
+    <t>https://ideakreativa.net/mejores-y-peores-marcas-de-portatiles-2020/</t>
+  </si>
+  <si>
+    <t>https://pcacademia.com/las-mejores-marcas-de-laptops/</t>
+  </si>
+  <si>
+    <t>https://www.linio.com.mx/c/pc-portatil/laptops</t>
+  </si>
+  <si>
+    <t>https://www.cyberpuerta.mx/Computadoras/Laptops/</t>
+  </si>
+  <si>
+    <t>https://www.bloghispanodenegocios.com/mejores-marcas-de-laptop/</t>
+  </si>
+  <si>
+    <t>https://marcasdecomputadoras.com/</t>
+  </si>
+  <si>
+    <t>https://mibodega.ec/product/audifonos-hp-para-laptop/</t>
+  </si>
+  <si>
+    <t>https://mejoreslaptops.com/las-mejores-marcas-de-portatiles/</t>
+  </si>
+  <si>
+    <t>https://rpp.pe/tecnologia/pc/laptops-las-mejores-marcas-segun-laptopmag-asus-dell-hp-msi-lenovo-acer-razer-samsung-alienware-apple-microsoft-noticia-1294079</t>
+  </si>
+  <si>
+    <t>https://nexelit.net/mejores-marcas-laptop/</t>
+  </si>
+  <si>
+    <t>https://www.portatilesbaratos.tech/las-mejores-marcas-de-portatiles/</t>
+  </si>
+  <si>
+    <t>https://www.soriana.com/tena-ropa-interior-desechable-corte-frances-ch-m-10-piezas/2842086.html</t>
+  </si>
+  <si>
+    <t>https://elobservador.ec/celulares-laptops-y-objetos-tecnologicos-fueron-decomisados-por-la-policia-nacional/</t>
+  </si>
+  <si>
+    <t>https://www.justdial.com/Jodhpur/Laptop-Dealers-in-Tena/nct-10935592/page-5</t>
+  </si>
+  <si>
+    <t>http://angelsmiralda.com/Echo-Gone-Wrong-Druids-on-Laptops</t>
+  </si>
+  <si>
+    <t>https://empresas.guiabbb.ec/0948687/CYBER_COMPU_TENA</t>
+  </si>
+  <si>
+    <t>https://www.coppel.com/protectores-tena-slip-nocturno-absorcion-super-abundante-8-piezas-pr-7284742</t>
+  </si>
+  <si>
+    <t>https://www.sitioswebtena.com/downloads/curso-reparacion-de-laptops-video/</t>
+  </si>
+  <si>
+    <t>https://www.shopstar.pe/tena-protector-de-cama-10un-3/p</t>
+  </si>
+  <si>
+    <t>https://cooptena.fin.ec/sorteo-2019-2020/</t>
+  </si>
+  <si>
+    <t>https://www.telerama.ec/nboga?v=p7QCX1</t>
+  </si>
+  <si>
+    <t>https://www.ivoox.com/entrevista-a-alumna-scarlett-verdugo-incorporada-al-programa-audios-mp3_rf_78833174_1.html</t>
+  </si>
+  <si>
+    <t>https://www.finehomebuilding.com/webinars</t>
+  </si>
+  <si>
+    <t>https://www.promiedos.com.ar/ficha=xjxjrdggkts&amp;c=17</t>
+  </si>
+  <si>
+    <t>https://www.cnet.com/tech/the-best-black-friday-deals/</t>
+  </si>
+  <si>
+    <t>https://www.novicompu.com/tiendas</t>
+  </si>
+  <si>
+    <t>https://es.digitaltrends.com/tendencias/en-que-direccion-fluye-tiempo-mundo-cuantico/</t>
+  </si>
+  <si>
+    <t>https://www.tiendeo.com.ec/tiendas/guayaquil/computron-av-francisco-de-orellana-sl-mz/95433</t>
+  </si>
+  <si>
+    <t>https://patch.com/new-hampshire/portsmouth-nh/portsmouth-daily-parades-events-outdoor-dining-options</t>
+  </si>
+  <si>
+    <t>https://www.nexdu.com/ec/puyo-y/empresa/pc-xpress-puyo-49992</t>
+  </si>
+  <si>
+    <t>https://rcwilley.com/Sale/HP/Electronics/Search?sort=5&amp;allM=true&amp;pt=HP</t>
+  </si>
+  <si>
+    <t>https://www.xgn.nl/artikel/bol-com-cyber-monday-2021-deals-op-een-rij</t>
+  </si>
+  <si>
+    <t>https://gringopost.com/2021/05/28/small-laptop-computer-in-the-us-needed-in-cuenca-or-puyo/</t>
+  </si>
+  <si>
+    <t>https://www.cacep1.fin.ec/</t>
+  </si>
+  <si>
+    <t>https://www.currys.co.uk/gbuk/nintendo-switch-gaming/console-gaming/games/634_4803_32583_7127_xx/xx-criteria.html</t>
+  </si>
+  <si>
+    <t>https://www.laptopgarage.net/</t>
+  </si>
+  <si>
+    <t>https://www.corotos.com.do/l/santo-domingo/sc/electr%C3%B3nica/computadoras-laptops</t>
+  </si>
+  <si>
+    <t>https://cecomsa.com/</t>
+  </si>
+  <si>
+    <t>https://cymcomputer.com/</t>
+  </si>
+  <si>
+    <t>https://www.prodacom.com/</t>
+  </si>
+  <si>
+    <t>https://www.encuentra24.com/dominicana-es/electronica-computadora-oficina-computadoras-accesorios/laptop-estudiantes/19893363</t>
+  </si>
+  <si>
+    <t>https://www.tiendascorripio.com.do/tecnologia/laptops</t>
+  </si>
+  <si>
+    <t>https://www.globatecrd.com/</t>
+  </si>
+  <si>
+    <t>https://misterlaptop.net/</t>
+  </si>
+  <si>
+    <t>https://www.xpc.com.do/servicios/ventas/equipos-tecnologico/ventas-computadoras.html</t>
+  </si>
+  <si>
+    <t>https://www.tiendeo.com.ec/tiendas/santo-domingo/novicompu-av-quito-y-abraham-calazacon/95699</t>
+  </si>
+  <si>
+    <t>https://tienda.omega.com.do/es/category/list/141?type=grid</t>
+  </si>
+  <si>
+    <t>https://www.tiendeo.com.ec/loja/novicompu</t>
+  </si>
+  <si>
+    <t>https://www.comandato.com/tecnologia/computacion</t>
+  </si>
+  <si>
+    <t>https://www.1800-laptops.com/</t>
+  </si>
+  <si>
+    <t>https://horario.top/0644648/1800_-_Laptops</t>
+  </si>
+  <si>
+    <t>https://www.aiyellow.com/1800laptops/</t>
+  </si>
+  <si>
+    <t>https://www.tiendeo.com.ec/ambato/novicompu</t>
+  </si>
+  <si>
+    <t>https://mibodega.ec/</t>
+  </si>
+  <si>
+    <t>https://www.waze.com/live-map/directions/ecuador/tungurahua/ambato/mr.laptops?to=place.ChIJbzte3QmB05ERrcdhVXsgpKo</t>
+  </si>
+  <si>
+    <t>https://tenderati.com/ec/cc/electronica-y-tecnologia-en-ambato/t/laptops</t>
+  </si>
+  <si>
+    <t>https://easylaptop-ambato.negocio.site/</t>
+  </si>
+  <si>
+    <t>https://www.mediaprice.com.ec/producto/ventilador-para-laptop-delta-2-ventiladores-vaiu-22/</t>
+  </si>
+  <si>
+    <t>https://www.planetamexico.com.mx/zamora/venta+de+laptops</t>
+  </si>
+  <si>
+    <t>https://www.coppel.com/laptops</t>
+  </si>
+  <si>
+    <t>https://www.tupulga.com/search?l=3649959&amp;r=&amp;c=47&amp;sc=51</t>
+  </si>
+  <si>
+    <t>https://www.sams.com.mx/electronica-y-computacion/computo/laptops/_/N-8iu</t>
+  </si>
+  <si>
+    <t>https://mebuscar.com/ar/disipadores?category=MLA430687&amp;city=TUxBQ0xPTWMwNjk3&amp;state=AR-B</t>
+  </si>
+  <si>
+    <t>http://wiki.laptop.org/go/Zamora_Teran</t>
+  </si>
+  <si>
+    <t>https://xconomy.com/boston/2014/03/20/one-laptop-per-child-ceo-we-have-achieved-our-goals/attachment/olpc-qa-main/</t>
+  </si>
+  <si>
+    <t>https://www.officedepot.com.mx/</t>
   </si>
 </sst>
 </file>
@@ -1807,10 +2542,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A50"/>
+  <dimension ref="A1:A505"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51:XFD505"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2065,8 +2800,2283 @@
         <v>56</v>
       </c>
     </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A411" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A412" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A413" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A414" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A415" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A416" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A417" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A418" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A419" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A420" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A421" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A422" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A423" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A424" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A425" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A426" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A427" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A428" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A429" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A430" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A431" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A434" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A435" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A436" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A437" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A438" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A439" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A440" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A441" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A442" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A443" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A444" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A445" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A446" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A447" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A448" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A449" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A450" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A451" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A452" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A453" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A454" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A455" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A456" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A457" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A458" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A459" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A460" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A461" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A462" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A463" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A464" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A465" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A466" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A467" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A468" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A469" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A470" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A471" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A472" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A473" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A474" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A475" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A476" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A477" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A478" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A479" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A480" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A481" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A482" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A483" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A484" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A485" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A486" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A487" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A488" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A489" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A490" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A491" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A492" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A493" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A494" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A495" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A496" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A497" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A498" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A499" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A500" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A501" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A502" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A503" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A504" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A505" t="s">
+        <v>374</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:A50" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <autoFilter ref="A1:A505" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>